--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/1.NhanBH/NBH210701_NhatQuang.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang7/1.NhanBH/NBH210701_NhatQuang.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Hà Nội, ngày 01 tháng 07 Năm 2021</t>
+  </si>
+  <si>
+    <t>NQ899</t>
+  </si>
+  <si>
+    <t>sim</t>
   </si>
 </sst>
 </file>
@@ -494,6 +500,45 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,45 +574,6 @@
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -922,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -942,92 +948,92 @@
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="35"/>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="48"/>
     </row>
     <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="51"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
@@ -1070,46 +1076,56 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12" s="26">
-        <v>868183034563101</v>
-      </c>
-      <c r="D12" s="21"/>
+        <v>866104028947151</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="E12" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="21"/>
     </row>
-    <row r="13" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="42" t="s">
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="26">
+        <v>868183034563101</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="43"/>
-    </row>
-    <row r="14" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="36" t="s">
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="36"/>
-      <c r="D14" s="27" t="s">
+      <c r="C15" s="49"/>
+      <c r="D15" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="28"/>
-    </row>
-    <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="25"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
     </row>
     <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
@@ -1134,29 +1150,36 @@
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
       <c r="F18" s="25"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+    </row>
+    <row r="21" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+    </row>
     <row r="22" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1167,28 +1190,29 @@
     <row r="29" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+    <row r="32" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="8:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A14:C14"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="B7:F7"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
